--- a/src/main/java/com/reparadoras/caritas/ui/utils/template.xlsx
+++ b/src/main/java/com/reparadoras/caritas/ui/utils/template.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PresRoci\Desktop\Caritas Recursos\Importacion Datos\v1.1\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PresRoci\Desktop\PROYECTOS\caritasDesktop\src\main\java\com\reparadoras\caritas\ui\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21885" windowHeight="11295" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21885" windowHeight="11295"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Datos" sheetId="1" r:id="rId1"/>
+    <sheet name="Familiares" sheetId="2" r:id="rId2"/>
+    <sheet name="Ingresos" sheetId="3" r:id="rId3"/>
+    <sheet name="Gastos" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -682,7 +684,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
   <si>
     <t>Documento de identidad</t>
   </si>
@@ -896,12 +898,30 @@
   <si>
     <t>Composición familiar</t>
   </si>
+  <si>
+    <t>Parentesco</t>
+  </si>
+  <si>
+    <t>DNI/NIE</t>
+  </si>
+  <si>
+    <t>Apellidos</t>
+  </si>
+  <si>
+    <t>Fecha de nacimiento</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Situación</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -938,10 +958,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1000,24 +1016,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1033,9 +1037,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1047,10 +1048,19 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1367,258 +1377,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG2"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:59" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:52" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="L1" s="3"/>
-      <c r="Q1" s="4" t="s">
+      <c r="B1" s="12"/>
+      <c r="L1" s="2"/>
+      <c r="Q1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="5" t="s">
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="2"/>
       <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
+      <c r="AK1" s="6"/>
       <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
+      <c r="AM1" s="6"/>
       <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="11" t="s">
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
       <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="9"/>
+      <c r="AZ1" s="5"/>
     </row>
-    <row r="2" spans="1:59" s="9" customFormat="1" ht="113.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:52" s="5" customFormat="1" ht="113.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AD2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AE2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AF2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AG2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AH2" s="12" t="s">
+      <c r="AH2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AI2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AI2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AK2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AL2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AM2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AU2" s="9" t="s">
+      <c r="AN2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AO2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AP2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="AR2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AZ2" s="9" t="s">
+      <c r="AS2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="AT2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="AU2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="BC2" s="9" t="s">
+      <c r="AV2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="BD2" s="9" t="s">
+      <c r="AW2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="BE2" s="9" t="s">
+      <c r="AX2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="BF2" s="9" t="s">
+      <c r="AY2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="BG2" s="9" t="s">
+      <c r="AZ2" s="5" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
+    <mergeCell ref="AQ1:AY1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="X1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AI1:AO1"/>
-    <mergeCell ref="AX1:BF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1627,28 +1606,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1657,4 +1665,102 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>